--- a/supplementary_data.xlsx
+++ b/supplementary_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinanderson/PHD/PROJECTS/heritable_network_topography/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2AA71-23F1-7D46-8194-718910C08EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3BA376-F21B-9842-A02B-9A8817D3565F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{47E60AC9-1FA6-C649-A703-B449F45489C0}"/>
+    <workbookView xWindow="1040" yWindow="1560" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{47E60AC9-1FA6-C649-A703-B449F45489C0}"/>
   </bookViews>
   <sheets>
     <sheet name="h2_net_surfarea" sheetId="1" r:id="rId1"/>
+    <sheet name="h2_multi_topography" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>varcomp</t>
   </si>
@@ -298,6 +299,21 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>jack_se</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>hemi</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>lh</t>
   </si>
 </sst>
 </file>
@@ -658,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2349C27A-CA21-D043-AFAA-67FD32401D7B}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,4 +1384,648 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD58049-EC83-D54A-B8BC-4AD5DB8137A8}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.146309808836385</v>
+      </c>
+      <c r="B2">
+        <v>1E-3</v>
+      </c>
+      <c r="C2">
+        <v>3.5793233636265101E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.135450889030275</v>
+      </c>
+      <c r="B3">
+        <v>1E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.2479818291436099E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.13578306795509501</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.4799301031043697E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.14499155788138399</v>
+      </c>
+      <c r="B5">
+        <v>1E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.2338962494019401E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.124657927260133</v>
+      </c>
+      <c r="B6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.5269207524473199E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.139538825432756</v>
+      </c>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+      <c r="C7">
+        <v>5.4344574409855304E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.144806478629737</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8">
+        <v>4.8466161275270304E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.15331965255104801</v>
+      </c>
+      <c r="B9">
+        <v>1E-3</v>
+      </c>
+      <c r="C9">
+        <v>6.9231129016876398E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.14834861982588199</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.6676084846355101E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.18707750253407199</v>
+      </c>
+      <c r="B11">
+        <v>1E-3</v>
+      </c>
+      <c r="C11">
+        <v>7.5097226117910804E-3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.12997089920934701</v>
+      </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.11168468985904E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.14892200257725199</v>
+      </c>
+      <c r="B13">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>6.5130797268939796E-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.138884823487334</v>
+      </c>
+      <c r="B14">
+        <v>1E-3</v>
+      </c>
+      <c r="C14">
+        <v>5.4716001142563102E-3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.152866841207694</v>
+      </c>
+      <c r="B15">
+        <v>1E-3</v>
+      </c>
+      <c r="C15">
+        <v>1.0425671057762599E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.15703164082316001</v>
+      </c>
+      <c r="B16">
+        <v>1E-3</v>
+      </c>
+      <c r="C16">
+        <v>5.4621705532244503E-3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.15684012202518499</v>
+      </c>
+      <c r="B17">
+        <v>1E-3</v>
+      </c>
+      <c r="C17">
+        <v>5.2282320050501402E-3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.13386358714934901</v>
+      </c>
+      <c r="B18">
+        <v>1E-3</v>
+      </c>
+      <c r="C18">
+        <v>6.0526820722244003E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.125553861987341</v>
+      </c>
+      <c r="B19">
+        <v>1E-3</v>
+      </c>
+      <c r="C19">
+        <v>1.2499068324905299E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.146309808836385</v>
+      </c>
+      <c r="B20">
+        <v>1E-3</v>
+      </c>
+      <c r="C20">
+        <v>3.5793233636265101E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.135450889030275</v>
+      </c>
+      <c r="B21">
+        <v>1E-3</v>
+      </c>
+      <c r="C21">
+        <v>1.2479818291436099E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.13578306795509501</v>
+      </c>
+      <c r="B22">
+        <v>1E-3</v>
+      </c>
+      <c r="C22">
+        <v>5.4799301031043697E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.14499155788138399</v>
+      </c>
+      <c r="B23">
+        <v>1E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.2338962494019401E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.124657927260133</v>
+      </c>
+      <c r="B24">
+        <v>1E-3</v>
+      </c>
+      <c r="C24">
+        <v>1.5269207524473199E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.139538825432756</v>
+      </c>
+      <c r="B25">
+        <v>1E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.4344574409855304E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.144806478629737</v>
+      </c>
+      <c r="B26">
+        <v>1E-3</v>
+      </c>
+      <c r="C26">
+        <v>4.8466161275270304E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.15331965255104801</v>
+      </c>
+      <c r="B27">
+        <v>1E-3</v>
+      </c>
+      <c r="C27">
+        <v>6.9231129016876398E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.14834861982588199</v>
+      </c>
+      <c r="B28">
+        <v>1E-3</v>
+      </c>
+      <c r="C28">
+        <v>1.6676084846355101E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.18707750253407199</v>
+      </c>
+      <c r="B29">
+        <v>1E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.5097226117910804E-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.12997089920934701</v>
+      </c>
+      <c r="B30">
+        <v>1E-3</v>
+      </c>
+      <c r="C30">
+        <v>1.11168468985904E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.14892200257725199</v>
+      </c>
+      <c r="B31">
+        <v>1E-3</v>
+      </c>
+      <c r="C31">
+        <v>6.5130797268939796E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.138884823487334</v>
+      </c>
+      <c r="B32">
+        <v>1E-3</v>
+      </c>
+      <c r="C32">
+        <v>5.4716001142563102E-3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.152866841207694</v>
+      </c>
+      <c r="B33">
+        <v>1E-3</v>
+      </c>
+      <c r="C33">
+        <v>1.0425671057762599E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.15703164082316001</v>
+      </c>
+      <c r="B34">
+        <v>1E-3</v>
+      </c>
+      <c r="C34">
+        <v>5.4621705532244503E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.15684012202518499</v>
+      </c>
+      <c r="B35">
+        <v>1E-3</v>
+      </c>
+      <c r="C35">
+        <v>5.2282320050501402E-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.13386358714934901</v>
+      </c>
+      <c r="B36">
+        <v>1E-3</v>
+      </c>
+      <c r="C36">
+        <v>6.0526820722244003E-3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.125553861987341</v>
+      </c>
+      <c r="B37">
+        <v>1E-3</v>
+      </c>
+      <c r="C37">
+        <v>1.2499068324905299E-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>